--- a/src/main/resources/RuleInformation.xlsx
+++ b/src/main/resources/RuleInformation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目开发\银联商务实习\demoDrools\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{ECB89A62-9269-44FC-A948-210F618DFCEE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C96085D-C8A9-48F7-AA66-9D0A28C02A80}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10536" xr2:uid="{4CEEC7B2-CE49-469D-ABD8-81747707DE60}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -128,9 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{ER_INCORP}</t>
-  </si>
-  <si>
     <t>{ER_EXP_FEE}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,7 +251,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否成员企业在职人员，来自于报销单的费用</t>
+    <t>RW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费流水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caculate（规则）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的&lt;EXPENSE_TYPE&gt;（&lt;行号&gt;）需进行计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ER_SCORE}={ER_SCORE}+{ER_EXP_FEE}*1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ER_EXP_FEE}&gt;{ER_DAY}*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ER_COMPANY}</t>
+  </si>
+  <si>
+    <t>用户所在企业</t>
     <rPh sb="0" eb="1">
       <t>shi fou</t>
     </rPh>
@@ -261,44 +286,8 @@
       <t>cheng yuan</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>qi ye</t>
+      <t>qi yelai zi yubao xiao dandefei yong</t>
     </rPh>
-    <rPh sb="7" eb="8">
-      <t>lai zi yu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>bao xiao dan</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>de</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>fei yong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费流水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>caculate（规则）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的&lt;EXPENSE_TYPE&gt;（&lt;行号&gt;）需进行计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ER_SCORE}={ER_SCORE}+{ER_EXP_FEE}*1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ER_EXP_FEE}&gt;{ER_DAY}*10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -744,7 +733,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -762,7 +751,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -786,15 +775,15 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -803,14 +792,14 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2" s="5"/>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -824,7 +813,7 @@
   <dimension ref="B1:C35"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.6"/>
@@ -837,43 +826,43 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="16.2">
       <c r="B2" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="31.2">
       <c r="B3" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="8"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="8"/>
     </row>
@@ -882,21 +871,21 @@
     </row>
     <row r="8" spans="2:3" ht="16.2">
       <c r="B8" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="8"/>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="8"/>
     </row>
@@ -905,58 +894,58 @@
     </row>
     <row r="12" spans="2:3" ht="16.2">
       <c r="B12" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="8" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="16.2">
@@ -966,10 +955,10 @@
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="16.2">

--- a/src/main/resources/RuleInformation.xlsx
+++ b/src/main/resources/RuleInformation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目开发\银联商务实习\demoDrools\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C96085D-C8A9-48F7-AA66-9D0A28C02A80}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{29857941-13BE-4A71-8C3F-EC18F2DFC99C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10536" xr2:uid="{4CEEC7B2-CE49-469D-ABD8-81747707DE60}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -267,14 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{ER_SCORE}={ER_SCORE}+{ER_EXP_FEE}*1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ER_EXP_FEE}&gt;{ER_DAY}*10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{ER_COMPANY}</t>
   </si>
   <si>
@@ -288,6 +279,14 @@
     <rPh sb="4" eb="5">
       <t>qi yelai zi yubao xiao dandefei yong</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ER_EXP_FEE}&gt;{ER_COUNT}*100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ER_SCORE}={ER_SCORE}+{ER_EXP_FEE}*0.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -732,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FF694B-B9DA-4159-9231-58761ED2E066}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -792,14 +791,14 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="5"/>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -942,10 +941,10 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="16.2">

--- a/src/main/resources/RuleInformation.xlsx
+++ b/src/main/resources/RuleInformation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目开发\银联商务实习\demoDrools\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{29857941-13BE-4A71-8C3F-EC18F2DFC99C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{22D4282E-CA15-4E71-9B88-07D379D1549D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10536" xr2:uid="{4CEEC7B2-CE49-469D-ABD8-81747707DE60}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <r>
       <t>applyPoint</t>
@@ -262,10 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>您的&lt;EXPENSE_TYPE&gt;（&lt;行号&gt;）需进行计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{ER_COMPANY}</t>
   </si>
   <si>
@@ -282,11 +278,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{ER_EXP_FEE}&gt;{ER_COUNT}*100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{ER_SCORE}={ER_SCORE}+{ER_EXP_FEE}*0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ER_EXP_FEE}&gt;{ER_COUNT}*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f251f733-6c14-4dd2-9051-0abb9c0fbd67</t>
+  </si>
+  <si>
+    <t>8258a18e-e7c8-4cc4-91a2-52991cb94d58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a81c500a-370f-48c3-a542-f679ecd05534</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的结果需进行计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{EXP_LEVEL}IN[3/4/5] AND {ER_EXP_FEE}&gt;{ER_COUNT}*100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{EXP_LEVEL}&gt;80 AND {ER_LOCATION}NOT IN[北京市/上海市/深圳市]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级在3、4、5级，一次性消费金额大于消费次数的100倍应该引起关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅允许北京、上海、深圳出现80级以上的用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +403,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -413,6 +440,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -729,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FF694B-B9DA-4159-9231-58761ED2E066}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -741,9 +771,9 @@
     <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="72.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="44.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -794,11 +824,59 @@
         <v>56</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -941,10 +1019,10 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="16.2">
